--- a/biology/Médecine/Jacques_Waynberg/Jacques_Waynberg.xlsx
+++ b/biology/Médecine/Jacques_Waynberg/Jacques_Waynberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Waynberg, né en 1941, est docteur en médecine, sexologue, psychothérapeute et criminologue. Il est cofondateur de la Société française de sexologie clinique en 1974, fondateur et président de l'Institut de sexologie en 1976[1] et il crée et dirige le diplôme universitaire « sexologie et santé publique » à la faculté de médecine de l'université Paris-7.
-Praticien et écrivain, auteur d’articles et ouvrages sur la sexologie[2], il est l’instigateur des premières consultations publiques de sexologie médicale en 1974 et un précurseur de son enseignement en France et en Europe[3]. L’ensemble de ses travaux de recherches cliniques et anthropologiques, historiques et ethnopharmacologiques, édifie une approche humaniste de la fonction érotique[4].
-Consultant auprès de l’Organisation mondiale de la santé, il participé aux programmes de lutte contre le sida et d’éducation à la santé sexuelle en Europe de l’Est et en Afrique francophone[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Waynberg, né en 1941, est docteur en médecine, sexologue, psychothérapeute et criminologue. Il est cofondateur de la Société française de sexologie clinique en 1974, fondateur et président de l'Institut de sexologie en 1976 et il crée et dirige le diplôme universitaire « sexologie et santé publique » à la faculté de médecine de l'université Paris-7.
+Praticien et écrivain, auteur d’articles et ouvrages sur la sexologie, il est l’instigateur des premières consultations publiques de sexologie médicale en 1974 et un précurseur de son enseignement en France et en Europe. L’ensemble de ses travaux de recherches cliniques et anthropologiques, historiques et ethnopharmacologiques, édifie une approche humaniste de la fonction érotique.
+Consultant auprès de l’Organisation mondiale de la santé, il participé aux programmes de lutte contre le sida et d’éducation à la santé sexuelle en Europe de l’Est et en Afrique francophone.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Waynberg nait en 1941[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Waynberg nait en 1941.
 Avant d'obtenir son doctorat de la faculté de médecine de Nancy en 1968, Jacques Waynberg obtient en 1967 son diplôme de criminologie à la faculté de droit de Nancy. Il est également licencié ès lettres à la faculté des lettres de Nancy la même année.
 En 1968, l'année de son doctorat en médecine générale, il obtient également sa licence de droit à l'Institut des sciences politiques. Un an après, il obtient un certificat d'étude spéciale (CES) de médecine du travail.
 En 1971, il est licencié ès sciences à la faculté des sciences de Nancy.
@@ -524,14 +538,14 @@
 En 1974, il obtient son certificat d'étude spéciale de médecine légale à la faculté de médecine de Nancy et son diplôme de psychopathologie à la faculté des lettres de Nancy. C'est cette année-là qu'il fait la connaissance de William Masters et Virginia Johnson, au sein de leur fondation Masters et Johnson Foundation, à l'université de Saint-Louis, aux États-Unis. Il effectuera également ses premières missions de coopération scientifique, sous l'égide du ministère des Affaires étrangères à Montréal, Moscou, Kiev.
 En 1975, le docteur Jacques Waynberg obtient son diplôme des mains de Masters et Johnson, avec lesquels il collaborera pendant de longues années.
 En 1976, après avoir reçu son diplôme spécialisé du National Sex Forum Institute, le ministère de la Justice français le charge de recherches au centre de Vaucresson. Il sera également consultant de psychiatrie pénitentiaire à Toul et à Écrouves. Cette année, il crée Sexofarm, un laboratoire de développement de produits parapharmaceutiques issus de la recherche ethnopharmaceutique dans le domaine de l'andrologie et de la gynécologie. Il crée la même année l'association Handicom, destinée à la formation continue de toutes les catégories professionnelles prenant en charge le handicap, à la création d’un centre de documentation, et à l’organisation de congrès internationaux portant sur le thème de la réadaptation sociale et familiale des personnes définitivement invalides.
-En 1977, il fonde l’Institut de sexologie[7].
+En 1977, il fonde l’Institut de sexologie.
 En 1978, et pendant deux ans, il effectuera d'autres missions de coopération internationales à Kiev et Leningrad.
 En 1982, il sera chargé de cours par le ministère de l'Éducation nationale à l'université de Paris VI et ce pendant trois années sous la direction du professeur C. Thibault. L'Alliance française le charge d'aller en mission de coopération scientifique à Rome, Milan et Naples.
-En 1983, il devient expert clinicien en médecine interne auprès du ministère de la Santé pendant cinq ans et sera attaché aux hôpitaux de Paris Beaujon, Saint-Antoine, Rothschild et Saint-Louis[8].
+En 1983, il devient expert clinicien en médecine interne auprès du ministère de la Santé pendant cinq ans et sera attaché aux hôpitaux de Paris Beaujon, Saint-Antoine, Rothschild et Saint-Louis.
 L'année d'après, en 1989, il est lauréat de la Fondation de France pour des recherches menées outre-mer en ethnopharmacologie.
-Il collabore aussi avec l’Organisation mondiale de la santé comme expert consultant[9].
-Il crée en 1999 le diplôme universitaire de sexologie et de santé publique au sein de l’université Paris-VII[10] et en prend la direction[11].
-En 2011, il est le directeur de la formation diplômante d'études appliquées de sexologie et de santé publique qu'il effectue au campus de l'Institut de sexologie, au château de Moncé, près de Vendôme[12].
+Il collabore aussi avec l’Organisation mondiale de la santé comme expert consultant.
+Il crée en 1999 le diplôme universitaire de sexologie et de santé publique au sein de l’université Paris-VII et en prend la direction.
+En 2011, il est le directeur de la formation diplômante d'études appliquées de sexologie et de santé publique qu'il effectue au campus de l'Institut de sexologie, au château de Moncé, près de Vendôme.
 </t>
         </is>
       </c>
@@ -562,7 +576,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Articles originaux, ouvrages et traductions professionnels
+          <t>Articles originaux, ouvrages et traductions professionnels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 D’un nouvel indice thoracique, à propos de 200 sujets féminins d’âge adulte, thèse de médecine, Faculté de Nancy, 20 décembre 1968.
 Contribution à l'étude d'un nouvel indice thoracique chez la femme, Arch. Anat. Hist. Embr. Norm. &amp; Exp. No 54, 1971.
 « Génie et pathogénie de l'éducation sexuelle », Les Cahiers rationalistes, no 298, 1973.
@@ -673,7 +693,43 @@
 Gilbert Tordjman : le crépuscule de la francophonie, Sexologies, vol. 18, no 3, juillet-septembre 2009.
 La pédophilie en question, Genesis no 149, mai 2010.
 « Doper n’est pas jouir », Libération, 31 janvier 2016.
-Publications grand public
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications et participations médiatiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications grand public</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Quelle éducation sexuelle ? L'Éducation, no 230, 1972.
 Le film pornographique, Médecine et Cinéma, no 32, 1976.
 Sexologie et esthétique, L'Esthétique, no 46, 1977.
@@ -715,27 +771,211 @@
 Jouir, c’est aimer, Éditions Milan, 2004, 261 p.
 Et la tendresse… bordel, Générations, no 33, octobre 2004.
 Viagra féminin, le sexe malade de la médecine, Libération no 8949 du 19 février 2010.
-Radio
-Radio RTL : Le sexe est-il devenu sans tabou ? Avec le sexologue Jacques Waynberg - 23/04/2009[13]
-Radio RFI : La vie sans sexe : un vrai choix ? par Jean-François Cadet[14]
-Radio France Inter : Sexe et consommation Émission présentée par Olivia Gesbert - 1er janvier 2007 -[15]
-Radio RCF : Parlons vrai - chronique hebdomadaire - depuis le 29/10/2018[16]
-Fréquence Protestante : Histoires intimes, par Virginie Girod - 11/02/2020[17]
-TV
-Antenne 2 - Journal TV - 29 juin 1984[18]
-Antenne 2 - Émission Double jeu - du 7 novembre 1992[19]
-Antenne 2 - Mardi Soir - du 1er octobre 1991[20]
-Antenne 2 - Le sexe en danger - du 26 février 1992[21]
-France 5 - Le Magazine de la santé - 08 novembre 2007[22]
-Canal + - Jeudi Investigation (actuellement Spécial Investigation) - Jeunes, intelligents, performants : Les accros aux pilules magiques - 20 décembre 2007[23]
-Canal + 19-11-2013 - Stéphane Haumant - Les nouveaux jackpots des laboratoires pharmaceutiques[24]
-Filmographie
-Courts métrages 16mm
-Opus 1, Le toucher, Cyril, Étude No 6, Massage relationnel, Sandra et As you like it.
-Vidéos
-Plaisir ensemble, Corps de femme, Caresses, OK, OK+, Corps à jouir et Érotica 1930.
-Pictographie
-Diathèque 144, ensemble original de 144 diapositives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications et participations médiatiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Radio RTL : Le sexe est-il devenu sans tabou ? Avec le sexologue Jacques Waynberg - 23/04/2009
+Radio RFI : La vie sans sexe : un vrai choix ? par Jean-François Cadet
+Radio France Inter : Sexe et consommation Émission présentée par Olivia Gesbert - 1er janvier 2007 -
+Radio RCF : Parlons vrai - chronique hebdomadaire - depuis le 29/10/2018
+Fréquence Protestante : Histoires intimes, par Virginie Girod - 11/02/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications et participations médiatiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Antenne 2 - Journal TV - 29 juin 1984
+Antenne 2 - Émission Double jeu - du 7 novembre 1992
+Antenne 2 - Mardi Soir - du 1er octobre 1991
+Antenne 2 - Le sexe en danger - du 26 février 1992
+France 5 - Le Magazine de la santé - 08 novembre 2007
+Canal + - Jeudi Investigation (actuellement Spécial Investigation) - Jeunes, intelligents, performants : Les accros aux pilules magiques - 20 décembre 2007
+Canal + 19-11-2013 - Stéphane Haumant - Les nouveaux jackpots des laboratoires pharmaceutiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications et participations médiatiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Courts métrages 16mm</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opus 1, Le toucher, Cyril, Étude No 6, Massage relationnel, Sandra et As you like it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications et participations médiatiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vidéos</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plaisir ensemble, Corps de femme, Caresses, OK, OK+, Corps à jouir et Érotica 1930.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Waynberg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications et participations médiatiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pictographie</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diathèque 144, ensemble original de 144 diapositives.
 </t>
         </is>
       </c>
